--- a/IP.xlsx
+++ b/IP.xlsx
@@ -1,43 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/toldenbeuving_tudelft_nl/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ee38df677a9f564/Documenten/Maritieme techniek/Q4/IP-26/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{D6AD301E-3DB8-45A2-8BCE-F3103E2E69A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7B973F4-D295-40A9-9E6A-D2AE0F84D1B1}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_9A640D58C1AC5FF7A56E787E55A03F0B0F285DDC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{343AEB8E-39D0-44E2-AE3F-50A846E36970}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E0D391A6-6235-43B9-86BB-EAF04D688384}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="140">
   <si>
     <t>Loa  [m]</t>
   </si>
@@ -343,19 +327,148 @@
   </si>
   <si>
     <t>H&amp;M calculation is turned OFF</t>
+  </si>
+  <si>
+    <t>WARNING: The Z value of point 1-3 of the bow intermediate curve is not zero</t>
+  </si>
+  <si>
+    <t>29.9</t>
+  </si>
+  <si>
+    <t>15.8</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>10973.46</t>
+  </si>
+  <si>
+    <t>0.4082</t>
+  </si>
+  <si>
+    <t>0.5263</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.58e+6</t>
+  </si>
+  <si>
+    <t>55.28</t>
+  </si>
+  <si>
+    <t>100.68</t>
+  </si>
+  <si>
+    <t>92.77</t>
+  </si>
+  <si>
+    <t>11.9</t>
+  </si>
+  <si>
+    <t>109.71</t>
+  </si>
+  <si>
+    <t>65.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4640.05</t>
+  </si>
+  <si>
+    <t>9.88</t>
+  </si>
+  <si>
+    <t>8.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10043.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1917.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.1</t>
+  </si>
+  <si>
+    <t>0.603</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29306.29</t>
+  </si>
+  <si>
+    <t>0.154</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28443.96</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>34277.82</t>
+  </si>
+  <si>
+    <t>0.013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.39</t>
+  </si>
+  <si>
+    <t>0.019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.49</t>
+  </si>
+  <si>
+    <t>0.023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13444.43</t>
+  </si>
+  <si>
+    <t>0.024</t>
+  </si>
+  <si>
+    <t>13091.05</t>
+  </si>
+  <si>
+    <t>6907.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1659.01</t>
+  </si>
+  <si>
+    <t>0.681</t>
+  </si>
+  <si>
+    <t>0.98</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -366,7 +479,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -378,15 +498,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -433,20 +576,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -474,31 +617,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -526,23 +652,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -554,1939 +663,3077 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E063DCE3-8F71-470A-B505-C1E054D8F7AA}">
-  <dimension ref="A2:M156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:M156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="1" max="1" width="32" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="14.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>29.97</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>17.984999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>146.303</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>107.081</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>69.494</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>91.438999999999993</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>5.9850000000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>5.9850000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>5.9850000000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>24.247</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>136.58500000000001</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>4.4960000000000004</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>5.9850000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>7271.8689999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>44624.483</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>95.58</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
         <v>3.7229999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>76.460999999999999</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
         <v>11.098000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>0.34399999999999997</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>0.47010000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="5">
         <v>2019.5219999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>88.650999999999996</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
         <v>5.9850000000000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="5">
         <v>74304.082999999999</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="6">
         <v>1422000</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="6">
         <v>1496300</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <v>2406.404</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="5">
         <v>104.75700000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="5">
         <v>117.014</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="C42" s="2"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="C43" s="2"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
         <v>36.478999999999999</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
         <v>41.578000000000003</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="5">
         <v>7.1779999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="C45" s="2"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
         <v>46.677</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="5">
         <v>17.555</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="C46" s="2"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
         <v>51.776000000000003</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="5">
         <v>29.242000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="C47" s="2"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
         <v>56.875999999999998</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="5">
         <v>41.654000000000003</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="C48" s="2"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
         <v>61.975000000000001</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="5">
         <v>54.348999999999997</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="C49" s="2"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
         <v>67.073999999999998</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="5">
         <v>66.888000000000005</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="C50" s="2"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
         <v>72.173000000000002</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="5">
         <v>78.742000000000004</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="C51" s="2"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
         <v>77.272000000000006</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="5">
         <v>89.176000000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="C52" s="2"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
         <v>82.370999999999995</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="5">
         <v>97.131</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="C53" s="2"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
         <v>87.47</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="5">
         <v>101.43</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="C54" s="2"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
         <v>92.569000000000003</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="5">
         <v>102.895</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="C55" s="2"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>97.668000000000006</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="5">
         <v>104.121</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="C56" s="2"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
         <v>102.767</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="5">
         <v>104.75700000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="C57" s="2"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
         <v>107.866</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="5">
         <v>104.021</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="C58" s="2"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
         <v>112.965</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="5">
         <v>101.057</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="C59" s="2"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
         <v>118.065</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="5">
         <v>94.915000000000006</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="C60" s="2"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
         <v>123.164</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="5">
         <v>84.588999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="C61" s="2"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
         <v>128.26300000000001</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="5">
         <v>69.712999999999994</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="C62" s="2"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
         <v>133.36199999999999</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="5">
         <v>50.372999999999998</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="C63" s="2"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
         <v>138.46100000000001</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="5">
         <v>24.998999999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="C64" s="2"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
         <v>143.56</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B65" s="4">
+        <v>0</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="C67" s="2"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="C68" s="2"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
         <v>-2.9860000000000002</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="5">
         <v>107.65900000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="C69" s="2"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+    </row>
+    <row r="70" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
         <v>4.157</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="5">
         <v>133.12200000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="C70" s="2"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
         <v>11.3</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="5">
         <v>160.12100000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="C71" s="2"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5">
         <v>18.443000000000001</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="5">
         <v>188.333</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="C72" s="2"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
         <v>25.585999999999999</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="5">
         <v>217.54300000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="C73" s="2"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
         <v>32.728999999999999</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="5">
         <v>247.53</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="C74" s="2"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="5">
         <v>39.871000000000002</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="5">
         <v>278.03699999999998</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="C75" s="2"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+    </row>
+    <row r="76" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="5">
         <v>47.014000000000003</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="5">
         <v>308.72899999999998</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="C76" s="2"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
         <v>54.156999999999996</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="5">
         <v>339.14299999999997</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="C77" s="2"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+    </row>
+    <row r="78" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="5">
         <v>61.3</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="5">
         <v>368.59</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="C78" s="2"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+    </row>
+    <row r="79" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="5">
         <v>68.442999999999998</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="5">
         <v>395.96699999999998</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="C79" s="2"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="5">
         <v>75.585999999999999</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="5">
         <v>419.32799999999997</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="C80" s="2"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="5">
         <v>82.728999999999999</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="5">
         <v>435.01100000000002</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="C81" s="2"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="5">
         <v>89.870999999999995</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="5">
         <v>438.16500000000002</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="C82" s="2"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+    </row>
+    <row r="83" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="5">
         <v>97.013999999999996</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="5">
         <v>433.78300000000002</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="C83" s="2"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+    </row>
+    <row r="84" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="5">
         <v>104.157</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="5">
         <v>423.14499999999998</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="C84" s="2"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+    </row>
+    <row r="85" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="5">
         <v>111.3</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="5">
         <v>401.09</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="C85" s="2"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+    </row>
+    <row r="86" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="5">
         <v>118.443</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="5">
         <v>362.76900000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="C86" s="2"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+    </row>
+    <row r="87" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="5">
         <v>125.586</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="5">
         <v>303.42700000000002</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="C87" s="2"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+    </row>
+    <row r="88" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="5">
         <v>132.72900000000001</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="5">
         <v>221.51599999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="C88" s="2"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+    </row>
+    <row r="89" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="5">
         <v>139.87100000000001</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="5">
         <v>112.539</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="C89" s="2"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+    </row>
+    <row r="90" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="5">
         <v>147.01400000000001</v>
       </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="B90" s="4">
+        <v>0</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+    </row>
+    <row r="91" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+    </row>
+    <row r="92" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="C92" s="2"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+    </row>
+    <row r="93" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="C93" s="2"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+    </row>
+    <row r="94" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1"/>
+      <c r="B94" s="4">
+        <v>0</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+    </row>
+    <row r="95" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+    </row>
+    <row r="96" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="C96" s="2"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+    </row>
+    <row r="97" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="C97" s="2"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+    </row>
+    <row r="98" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H98" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J98" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K98" t="s">
+      <c r="K98" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="99" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="5">
         <v>-2.9860000000000002</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="5">
         <v>51.658000000000001</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="5">
         <v>0.77600000000000002</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="5">
         <v>-2.9860000000000002</v>
       </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
+      <c r="E99" s="4">
+        <v>0</v>
+      </c>
+      <c r="F99" s="5">
         <v>15.701000000000001</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="5">
         <v>44.78</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="5">
         <v>4.4509999999999996</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="5">
         <v>40.329000000000001</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="5">
         <v>12.452</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="100" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="5">
         <v>4.157</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="5">
         <v>54.003</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="5">
         <v>0.81100000000000005</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="5">
         <v>4.157</v>
       </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
+      <c r="E100" s="4">
+        <v>0</v>
+      </c>
+      <c r="F100" s="5">
         <v>15.199</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="5">
         <v>51.564999999999998</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="5">
         <v>6.7670000000000003</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="5">
         <v>44.798000000000002</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="5">
         <v>11.241</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="101" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="5">
         <v>11.3</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="5">
         <v>56.76</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="5">
         <v>0.85199999999999998</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="5">
         <v>11.3</v>
       </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
+      <c r="E101" s="4">
+        <v>0</v>
+      </c>
+      <c r="F101" s="5">
         <v>14.708</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="5">
         <v>60.290999999999997</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="5">
         <v>9.6479999999999997</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="5">
         <v>50.643000000000001</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="5">
         <v>10.047000000000001</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="102" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="5">
         <v>18.443000000000001</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="5">
         <v>59.665999999999997</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="5">
         <v>0.89600000000000002</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="5">
         <v>18.443000000000001</v>
       </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
+      <c r="E102" s="4">
+        <v>0</v>
+      </c>
+      <c r="F102" s="5">
         <v>14.228</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="5">
         <v>70.472999999999999</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="5">
         <v>13.103999999999999</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="5">
         <v>57.369</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="5">
         <v>8.8670000000000009</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="103" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="5">
         <v>25.585999999999999</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="5">
         <v>62.627000000000002</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="5">
         <v>0.94</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="5">
         <v>25.585999999999999</v>
       </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
+      <c r="E103" s="4">
+        <v>0</v>
+      </c>
+      <c r="F103" s="5">
         <v>13.759</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="5">
         <v>81.945999999999998</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="5">
         <v>17.135000000000002</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="5">
         <v>64.811000000000007</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="5">
         <v>7.7039999999999997</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="104" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="5">
         <v>32.728999999999999</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="5">
         <v>65.593000000000004</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="5">
         <v>0.98499999999999999</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="5">
         <v>32.728999999999999</v>
       </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
+      <c r="E104" s="4">
+        <v>0</v>
+      </c>
+      <c r="F104" s="5">
         <v>13.302</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="5">
         <v>94.593000000000004</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="5">
         <v>21.731000000000002</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="5">
         <v>72.861999999999995</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="5">
         <v>6.5609999999999999</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="105" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="5">
         <v>39.871000000000002</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="5">
         <v>68.524000000000001</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="5">
         <v>1.0289999999999999</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="5">
         <v>39.871000000000002</v>
       </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
+      <c r="E105" s="4">
+        <v>0</v>
+      </c>
+      <c r="F105" s="5">
         <v>12.86</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="5">
         <v>108.285</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="5">
         <v>26.861000000000001</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="5">
         <v>81.424000000000007</v>
       </c>
-      <c r="J105">
+      <c r="J105" s="5">
         <v>5.4429999999999996</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="106" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="5">
         <v>47.014000000000003</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="5">
         <v>71.387</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="5">
         <v>1.0720000000000001</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="5">
         <v>47.014000000000003</v>
       </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
+      <c r="E106" s="4">
+        <v>0</v>
+      </c>
+      <c r="F106" s="5">
         <v>12.433999999999999</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="5">
         <v>122.84399999999999</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="5">
         <v>32.468000000000004</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="5">
         <v>90.375</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="5">
         <v>4.3570000000000002</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="107" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="5">
         <v>54.156999999999996</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="5">
         <v>74.14</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="5">
         <v>1.113</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="5">
         <v>54.156999999999996</v>
       </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
+      <c r="E107" s="4">
+        <v>0</v>
+      </c>
+      <c r="F107" s="5">
         <v>12.026999999999999</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="5">
         <v>137.98400000000001</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="5">
         <v>38.448</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="5">
         <v>99.536000000000001</v>
       </c>
-      <c r="J107">
+      <c r="J107" s="5">
         <v>3.3130000000000002</v>
       </c>
-      <c r="K107">
+      <c r="K107" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="108" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="5">
         <v>61.3</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="5">
         <v>76.724999999999994</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="5">
         <v>1.1519999999999999</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="5">
         <v>61.3</v>
       </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
+      <c r="E108" s="4">
+        <v>0</v>
+      </c>
+      <c r="F108" s="5">
         <v>11.646000000000001</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="5">
         <v>153.27099999999999</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="5">
         <v>44.634999999999998</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="5">
         <v>108.636</v>
       </c>
-      <c r="J108">
+      <c r="J108" s="5">
         <v>2.33</v>
       </c>
-      <c r="K108">
+      <c r="K108" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="109" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="5">
         <v>68.442999999999998</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="5">
         <v>79.051000000000002</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="5">
         <v>1.1870000000000001</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="5">
         <v>68.442999999999998</v>
       </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
+      <c r="E109" s="4">
+        <v>0</v>
+      </c>
+      <c r="F109" s="5">
         <v>11.298</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="5">
         <v>167.94300000000001</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="5">
         <v>50.737000000000002</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="5">
         <v>117.206</v>
       </c>
-      <c r="J109">
+      <c r="J109" s="5">
         <v>1.4390000000000001</v>
       </c>
-      <c r="K109">
+      <c r="K109" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="110" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="5">
         <v>75.585999999999999</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="5">
         <v>80.956000000000003</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="5">
         <v>1.216</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="5">
         <v>75.585999999999999</v>
       </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
+      <c r="E110" s="4">
+        <v>0</v>
+      </c>
+      <c r="F110" s="5">
         <v>10.999000000000001</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="5">
         <v>180.661</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="5">
         <v>56.246000000000002</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="5">
         <v>124.41500000000001</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="5">
         <v>0.69099999999999995</v>
       </c>
-      <c r="K110">
+      <c r="K110" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="111" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="5">
         <v>82.728999999999999</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="5">
         <v>82.125</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="5">
         <v>1.2330000000000001</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="5">
         <v>82.728999999999999</v>
       </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
+      <c r="E111" s="4">
+        <v>0</v>
+      </c>
+      <c r="F111" s="5">
         <v>10.776999999999999</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="5">
         <v>188.86799999999999</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="5">
         <v>60.213000000000001</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="5">
         <v>128.655</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="5">
         <v>0.185</v>
       </c>
-      <c r="K111">
+      <c r="K111" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="112" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="5">
         <v>89.870999999999995</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="5">
         <v>82.116</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="5">
         <v>1.2330000000000001</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="5">
         <v>89.870999999999995</v>
       </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
+      <c r="E112" s="4">
+        <v>0</v>
+      </c>
+      <c r="F112" s="5">
         <v>10.661</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="5">
         <v>189.06299999999999</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="5">
         <v>61.465000000000003</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="5">
         <v>127.598</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="5">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K112">
+      <c r="K112" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="113" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="5">
         <v>97.013999999999996</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="5">
         <v>81.346999999999994</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="5">
         <v>1.2210000000000001</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="5">
         <v>97.013999999999996</v>
       </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
+      <c r="E113" s="4">
+        <v>0</v>
+      </c>
+      <c r="F113" s="5">
         <v>10.574</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="5">
         <v>183.92099999999999</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="5">
         <v>61.337000000000003</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="5">
         <v>122.584</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K113">
+      <c r="K113" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row r="114" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="5">
         <v>104.157</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="5">
         <v>79.930000000000007</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="5">
         <v>1.2</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="5">
         <v>104.157</v>
       </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
+      <c r="E114" s="4">
+        <v>0</v>
+      </c>
+      <c r="F114" s="5">
         <v>10.472</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="5">
         <v>174.46799999999999</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="5">
         <v>60.634</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="5">
         <v>113.834</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="5">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="K114">
+      <c r="K114" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row r="115" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="5">
         <v>111.3</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="5">
         <v>77.391999999999996</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="5">
         <v>1.1619999999999999</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="5">
         <v>111.3</v>
       </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
+      <c r="E115" s="4">
+        <v>0</v>
+      </c>
+      <c r="F115" s="5">
         <v>10.385</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="5">
         <v>158.04499999999999</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="5">
         <v>58.652999999999999</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="5">
         <v>99.391999999999996</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="5">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="K115">
+      <c r="K115" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row r="116" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="5">
         <v>118.443</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="5">
         <v>73.281999999999996</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="5">
         <v>118.443</v>
       </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
+      <c r="E116" s="4">
+        <v>0</v>
+      </c>
+      <c r="F116" s="5">
         <v>10.352</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="5">
         <v>133.48599999999999</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="5">
         <v>54.709000000000003</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="5">
         <v>78.777000000000001</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="5">
         <v>4.7E-2</v>
       </c>
-      <c r="K116">
+      <c r="K116" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row r="117" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="5">
         <v>125.586</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="5">
         <v>67.034000000000006</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="5">
         <v>1.006</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="5">
         <v>125.586</v>
       </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117">
+      <c r="E117" s="4">
+        <v>0</v>
+      </c>
+      <c r="F117" s="5">
         <v>10.407999999999999</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="5">
         <v>101.235</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="5">
         <v>47.938000000000002</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="5">
         <v>53.296999999999997</v>
       </c>
-      <c r="J117">
+      <c r="J117" s="5">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="K117">
+      <c r="K117" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row r="118" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="5">
         <v>132.72900000000001</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="5">
         <v>58.317</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="5">
         <v>0.876</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="5">
         <v>132.72900000000001</v>
       </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118">
+      <c r="E118" s="4">
+        <v>0</v>
+      </c>
+      <c r="F118" s="5">
         <v>10.555</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="5">
         <v>65.486999999999995</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="5">
         <v>37.898000000000003</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="5">
         <v>27.588999999999999</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="5">
         <v>-0.01</v>
       </c>
-      <c r="K118">
+      <c r="K118" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row r="119" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="5">
         <v>139.87100000000001</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="5">
         <v>45.28</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="5">
         <v>0.68</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="5">
         <v>139.87100000000001</v>
       </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
+      <c r="E119" s="4">
+        <v>0</v>
+      </c>
+      <c r="F119" s="5">
         <v>11.23</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="5">
         <v>29.353999999999999</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="5">
         <v>21.587</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="5">
         <v>7.7670000000000003</v>
       </c>
-      <c r="J119">
+      <c r="J119" s="5">
         <v>1.4990000000000001</v>
       </c>
-      <c r="K119">
+      <c r="K119" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120">
+    <row r="120" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="5">
         <v>147.01400000000001</v>
       </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120">
+      <c r="B120" s="4">
+        <v>0</v>
+      </c>
+      <c r="C120" s="4">
+        <v>0</v>
+      </c>
+      <c r="D120" s="5">
         <v>147.01400000000001</v>
       </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120">
+      <c r="E120" s="4">
+        <v>0</v>
+      </c>
+      <c r="F120" s="5">
         <v>17.983000000000001</v>
       </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="G120" s="4">
+        <v>0</v>
+      </c>
+      <c r="H120" s="4">
+        <v>0</v>
+      </c>
+      <c r="I120" s="4">
+        <v>0</v>
+      </c>
+      <c r="J120" s="4">
+        <v>0</v>
+      </c>
+      <c r="K120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+    </row>
+    <row r="122" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="5">
         <v>146.303</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="C122" s="2"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+    </row>
+    <row r="123" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="C123" s="2"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+    </row>
+    <row r="124" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="C124" s="2"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+    </row>
+    <row r="125" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="5">
         <v>5.9850000000000003</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="C125" s="2"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+    </row>
+    <row r="126" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="5">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="C126" s="2"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+    </row>
+    <row r="127" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="C127" s="2"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+    </row>
+    <row r="128" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="5">
         <v>21945.468000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="C128" s="2"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+    </row>
+    <row r="129" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="4">
         <v>55</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="C129" s="2"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+    </row>
+    <row r="130" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="C130" s="2"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+    </row>
+    <row r="131" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="C131" s="2"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+    </row>
+    <row r="132" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="4">
         <v>65</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="C132" s="2"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+    </row>
+    <row r="133" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="C133" s="2"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+    </row>
+    <row r="134" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="B134" s="4">
+        <v>0</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+    </row>
+    <row r="135" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="B135" s="4">
+        <v>0</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+    </row>
+    <row r="136" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="C136" s="2"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+    </row>
+    <row r="137" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="C137" s="2"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+    </row>
+    <row r="138" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="C138" s="2"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+    </row>
+    <row r="139" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="C139" s="2"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+    </row>
+    <row r="140" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="C140" s="2"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+    </row>
+    <row r="141" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="C141" s="2"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+    </row>
+    <row r="142" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="B142" s="4">
+        <v>0</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+    </row>
+    <row r="143" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+    </row>
+    <row r="144" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+    </row>
+    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+    </row>
+    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H146" t="s">
+      <c r="H146" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I146" t="s">
+      <c r="I146" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="J146" t="s">
+      <c r="J146" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K146" t="s">
+      <c r="K146" s="7" t="s">
         <v>91</v>
       </c>
       <c r="L146" t="s">
@@ -2496,56 +3743,85 @@
         <v>93</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+    </row>
+    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+    </row>
+    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="C149" s="2"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+    </row>
+    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G150" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H150" t="s">
+      <c r="H150" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I150" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="J150" t="s">
+      <c r="J150" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K150" t="s">
+      <c r="K150" s="7" t="s">
         <v>91</v>
       </c>
       <c r="L150" t="s">
@@ -2555,33 +3831,95 @@
         <v>93</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+    </row>
+    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+    </row>
+    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
+    </row>
+    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="C154" s="2"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+    </row>
+    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+    </row>
+    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2589,13 +3927,2705 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647AAA95-3343-4603-B1A5-FD7AA296ED63}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A2:M182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="M130" sqref="M130"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>154228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>119616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>73258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9">
+        <v>96393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9">
+        <v>23385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
+        <v>144676</v>
+      </c>
+      <c r="C18" s="9">
+        <v>-4485</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9">
+        <v>45659165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9">
+        <v>95458</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="9">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9">
+        <v>80049</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9">
+        <v>9356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="9">
+        <v>2721541</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="9">
+        <v>87463</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="9">
+        <v>144133683</v>
+      </c>
+      <c r="C29" s="10">
+        <v>24359000000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="9">
+        <v>3273151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="9">
+        <v>151981</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="9">
+        <v>1772643</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="9">
+        <v>133383</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" s="9">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="9">
+        <v>123252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="9">
+        <v>390856</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="9">
+        <v>134027</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" s="9">
+        <v>6004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="9">
+        <v>9296692</v>
+      </c>
+      <c r="C40" s="9">
+        <v>20451715</v>
+      </c>
+      <c r="D40" s="9">
+        <v>29748407</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <v>32496</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <v>38192</v>
+      </c>
+      <c r="B45" s="9">
+        <v>12276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
+        <v>43888</v>
+      </c>
+      <c r="B46" s="9">
+        <v>28113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
+        <v>49584</v>
+      </c>
+      <c r="B47" s="9">
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="9">
+        <v>63728</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
+        <v>60976</v>
+      </c>
+      <c r="B49" s="9">
+        <v>82312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
+        <v>66672</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
+        <v>72368</v>
+      </c>
+      <c r="B51" s="9">
+        <v>118125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
+        <v>78063</v>
+      </c>
+      <c r="B52" s="9">
+        <v>133643</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
+        <v>83759</v>
+      </c>
+      <c r="B53" s="9">
+        <v>145694</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
+        <v>89455</v>
+      </c>
+      <c r="B54" s="9">
+        <v>151981</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
+        <v>95151</v>
+      </c>
+      <c r="B55" s="9">
+        <v>150765</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="9">
+        <v>100847</v>
+      </c>
+      <c r="B56" s="9">
+        <v>145549</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="9">
+        <v>106543</v>
+      </c>
+      <c r="B57" s="9">
+        <v>138731</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="9">
+        <v>112239</v>
+      </c>
+      <c r="B58" s="9">
+        <v>130237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
+        <v>117935</v>
+      </c>
+      <c r="B59" s="9">
+        <v>119925</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="9">
+        <v>123631</v>
+      </c>
+      <c r="B60" s="9">
+        <v>107564</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
+        <v>129327</v>
+      </c>
+      <c r="B61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
+        <v>135023</v>
+      </c>
+      <c r="B62" s="9">
+        <v>75044</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="9">
+        <v>140719</v>
+      </c>
+      <c r="B63" s="9">
+        <v>53993</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
+        <v>146415</v>
+      </c>
+      <c r="B64" s="9">
+        <v>27936</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="9">
+        <v>152111</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="9">
+        <v>-3148</v>
+      </c>
+      <c r="B69" s="9">
+        <v>94358</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="9">
+        <v>4376</v>
+      </c>
+      <c r="B70" s="9">
+        <v>121664</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" s="9">
+        <v>150314</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="9">
+        <v>19424</v>
+      </c>
+      <c r="B72" s="9">
+        <v>180186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="9">
+        <v>26948</v>
+      </c>
+      <c r="B73" s="9">
+        <v>211127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="9">
+        <v>34472</v>
+      </c>
+      <c r="B74" s="9">
+        <v>242935</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="9">
+        <v>41995</v>
+      </c>
+      <c r="B75" s="9">
+        <v>275341</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="9">
+        <v>49519</v>
+      </c>
+      <c r="B76" s="9">
+        <v>307971</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="9">
+        <v>57043</v>
+      </c>
+      <c r="B77" s="9">
+        <v>340284</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="9">
+        <v>64567</v>
+      </c>
+      <c r="B78" s="9">
+        <v>371452</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="9">
+        <v>72091</v>
+      </c>
+      <c r="B79" s="9">
+        <v>400111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="9">
+        <v>79614</v>
+      </c>
+      <c r="B80" s="9">
+        <v>423822</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="9">
+        <v>87138</v>
+      </c>
+      <c r="B81" s="9">
+        <v>437927</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="9">
+        <v>94662</v>
+      </c>
+      <c r="B82" s="9">
+        <v>435753</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="9">
+        <v>102186</v>
+      </c>
+      <c r="B83" s="9">
+        <v>422013</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>114</v>
+      </c>
+      <c r="B84" s="9">
+        <v>401969</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="9">
+        <v>117233</v>
+      </c>
+      <c r="B85" s="9">
+        <v>373481</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="9">
+        <v>124757</v>
+      </c>
+      <c r="B86" s="9">
+        <v>333336</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="9">
+        <v>132281</v>
+      </c>
+      <c r="B87" s="9">
+        <v>277208</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="9">
+        <v>139805</v>
+      </c>
+      <c r="B88" s="9">
+        <v>202427</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="9">
+        <v>147329</v>
+      </c>
+      <c r="B89" s="9">
+        <v>105786</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="9">
+        <v>154852</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="9">
+        <v>123252</v>
+      </c>
+      <c r="B94" s="9">
+        <v>108546</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="9">
+        <v>130468</v>
+      </c>
+      <c r="B95" s="9">
+        <v>89543</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="9">
+        <v>137683</v>
+      </c>
+      <c r="B96" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="9">
+        <v>144898</v>
+      </c>
+      <c r="B97" s="9">
+        <v>35646</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="9">
+        <v>152113</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>40</v>
+      </c>
+      <c r="B101">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>47</v>
+      </c>
+      <c r="B102" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" t="s">
+        <v>49</v>
+      </c>
+      <c r="D102" t="s">
+        <v>50</v>
+      </c>
+      <c r="E102" t="s">
+        <v>51</v>
+      </c>
+      <c r="F102" t="s">
+        <v>52</v>
+      </c>
+      <c r="G102" t="s">
+        <v>53</v>
+      </c>
+      <c r="H102" t="s">
+        <v>54</v>
+      </c>
+      <c r="I102" t="s">
+        <v>55</v>
+      </c>
+      <c r="J102" t="s">
+        <v>56</v>
+      </c>
+      <c r="K102" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="9">
+        <v>-3148</v>
+      </c>
+      <c r="B103" s="9">
+        <v>50632</v>
+      </c>
+      <c r="C103" s="9">
+        <v>94358</v>
+      </c>
+      <c r="D103" s="9">
+        <v>-3148</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103" s="9">
+        <v>13621</v>
+      </c>
+      <c r="G103" s="9">
+        <v>3453162</v>
+      </c>
+      <c r="H103" s="9">
+        <v>166869</v>
+      </c>
+      <c r="I103" s="9">
+        <v>3286293</v>
+      </c>
+      <c r="J103" s="9">
+        <v>10952</v>
+      </c>
+      <c r="K103" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="9">
+        <v>-3148</v>
+      </c>
+      <c r="B104" s="9">
+        <v>50632</v>
+      </c>
+      <c r="C104" s="9">
+        <v>94358</v>
+      </c>
+      <c r="D104" s="9">
+        <v>-3148</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104" s="9">
+        <v>13621</v>
+      </c>
+      <c r="G104" s="9">
+        <v>3453162</v>
+      </c>
+      <c r="H104" s="9">
+        <v>166869</v>
+      </c>
+      <c r="I104" s="9">
+        <v>3286293</v>
+      </c>
+      <c r="J104" s="9">
+        <v>10952</v>
+      </c>
+      <c r="K104" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="9">
+        <v>4376</v>
+      </c>
+      <c r="B105" s="9">
+        <v>53826</v>
+      </c>
+      <c r="C105" s="9">
+        <v>121664</v>
+      </c>
+      <c r="D105" s="9">
+        <v>4376</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105" s="9">
+        <v>13103</v>
+      </c>
+      <c r="G105" s="9">
+        <v>4964272</v>
+      </c>
+      <c r="H105" s="9">
+        <v>324222</v>
+      </c>
+      <c r="I105" t="s">
+        <v>116</v>
+      </c>
+      <c r="J105" t="s">
+        <v>117</v>
+      </c>
+      <c r="K105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="9">
+        <v>4376</v>
+      </c>
+      <c r="B106" s="9">
+        <v>53826</v>
+      </c>
+      <c r="C106" s="9">
+        <v>121664</v>
+      </c>
+      <c r="D106" s="9">
+        <v>4376</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106" s="9">
+        <v>13103</v>
+      </c>
+      <c r="G106" s="9">
+        <v>4964272</v>
+      </c>
+      <c r="H106" s="9">
+        <v>324222</v>
+      </c>
+      <c r="I106" t="s">
+        <v>116</v>
+      </c>
+      <c r="J106" t="s">
+        <v>117</v>
+      </c>
+      <c r="K106" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" s="9">
+        <v>57071</v>
+      </c>
+      <c r="C107" s="9">
+        <v>150314</v>
+      </c>
+      <c r="D107" t="s">
+        <v>113</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107" s="9">
+        <v>12587</v>
+      </c>
+      <c r="G107" s="9">
+        <v>6773143</v>
+      </c>
+      <c r="H107" s="9">
+        <v>561446</v>
+      </c>
+      <c r="I107" s="9">
+        <v>6211697</v>
+      </c>
+      <c r="J107" t="s">
+        <v>118</v>
+      </c>
+      <c r="K107" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" s="9">
+        <v>57071</v>
+      </c>
+      <c r="C108" s="9">
+        <v>150314</v>
+      </c>
+      <c r="D108" t="s">
+        <v>113</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108" s="9">
+        <v>12587</v>
+      </c>
+      <c r="G108" s="9">
+        <v>6773143</v>
+      </c>
+      <c r="H108" s="9">
+        <v>561446</v>
+      </c>
+      <c r="I108" s="9">
+        <v>6211697</v>
+      </c>
+      <c r="J108" t="s">
+        <v>118</v>
+      </c>
+      <c r="K108" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="9">
+        <v>19424</v>
+      </c>
+      <c r="B109" s="9">
+        <v>60334</v>
+      </c>
+      <c r="C109" s="9">
+        <v>180186</v>
+      </c>
+      <c r="D109" s="9">
+        <v>19424</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109" s="9">
+        <v>12074</v>
+      </c>
+      <c r="G109" s="9">
+        <v>8906869</v>
+      </c>
+      <c r="H109" s="9">
+        <v>895685</v>
+      </c>
+      <c r="I109" s="9">
+        <v>8011184</v>
+      </c>
+      <c r="J109" s="9">
+        <v>7775</v>
+      </c>
+      <c r="K109" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="9">
+        <v>19424</v>
+      </c>
+      <c r="B110" s="9">
+        <v>60334</v>
+      </c>
+      <c r="C110" s="9">
+        <v>180186</v>
+      </c>
+      <c r="D110" s="9">
+        <v>19424</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110" s="9">
+        <v>12074</v>
+      </c>
+      <c r="G110" s="9">
+        <v>8906869</v>
+      </c>
+      <c r="H110" s="9">
+        <v>895685</v>
+      </c>
+      <c r="I110" s="9">
+        <v>8011184</v>
+      </c>
+      <c r="J110" s="9">
+        <v>7775</v>
+      </c>
+      <c r="K110" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="9">
+        <v>26948</v>
+      </c>
+      <c r="B111" s="9">
+        <v>63588</v>
+      </c>
+      <c r="C111" s="9">
+        <v>211127</v>
+      </c>
+      <c r="D111" s="9">
+        <v>26948</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111" s="9">
+        <v>11566</v>
+      </c>
+      <c r="G111" s="9">
+        <v>11387007</v>
+      </c>
+      <c r="H111" s="9">
+        <v>1343037</v>
+      </c>
+      <c r="I111" t="s">
+        <v>119</v>
+      </c>
+      <c r="J111" s="9">
+        <v>6746</v>
+      </c>
+      <c r="K111" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="9">
+        <v>26948</v>
+      </c>
+      <c r="B112" s="9">
+        <v>63588</v>
+      </c>
+      <c r="C112" s="9">
+        <v>211127</v>
+      </c>
+      <c r="D112" s="9">
+        <v>26948</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112" s="9">
+        <v>11566</v>
+      </c>
+      <c r="G112" s="9">
+        <v>11387007</v>
+      </c>
+      <c r="H112" s="9">
+        <v>1343037</v>
+      </c>
+      <c r="I112" t="s">
+        <v>119</v>
+      </c>
+      <c r="J112" s="9">
+        <v>6746</v>
+      </c>
+      <c r="K112" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="9">
+        <v>34472</v>
+      </c>
+      <c r="B113" s="9">
+        <v>66807</v>
+      </c>
+      <c r="C113" s="9">
+        <v>242935</v>
+      </c>
+      <c r="D113" s="9">
+        <v>34472</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113" s="9">
+        <v>11065</v>
+      </c>
+      <c r="G113" s="9">
+        <v>14226089</v>
+      </c>
+      <c r="H113" t="s">
+        <v>120</v>
+      </c>
+      <c r="I113" s="9">
+        <v>12308738</v>
+      </c>
+      <c r="J113" s="9">
+        <v>5737</v>
+      </c>
+      <c r="K113" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="9">
+        <v>34472</v>
+      </c>
+      <c r="B114" s="9">
+        <v>66807</v>
+      </c>
+      <c r="C114" s="9">
+        <v>242935</v>
+      </c>
+      <c r="D114" s="9">
+        <v>34472</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114" s="9">
+        <v>11065</v>
+      </c>
+      <c r="G114" s="9">
+        <v>14226089</v>
+      </c>
+      <c r="H114" t="s">
+        <v>120</v>
+      </c>
+      <c r="I114" s="9">
+        <v>12308738</v>
+      </c>
+      <c r="J114" s="9">
+        <v>5737</v>
+      </c>
+      <c r="K114" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="9">
+        <v>41995</v>
+      </c>
+      <c r="B115" s="9">
+        <v>69966</v>
+      </c>
+      <c r="C115" s="9">
+        <v>275341</v>
+      </c>
+      <c r="D115" s="9">
+        <v>41995</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115" s="9">
+        <v>10575</v>
+      </c>
+      <c r="G115" s="9">
+        <v>17422342</v>
+      </c>
+      <c r="H115" s="9">
+        <v>2628438</v>
+      </c>
+      <c r="I115" s="9">
+        <v>14793904</v>
+      </c>
+      <c r="J115" s="9">
+        <v>4753</v>
+      </c>
+      <c r="K115" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="9">
+        <v>41995</v>
+      </c>
+      <c r="B116" s="9">
+        <v>69966</v>
+      </c>
+      <c r="C116" s="9">
+        <v>275341</v>
+      </c>
+      <c r="D116" s="9">
+        <v>41995</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116" s="9">
+        <v>10575</v>
+      </c>
+      <c r="G116" s="9">
+        <v>17422342</v>
+      </c>
+      <c r="H116" s="9">
+        <v>2628438</v>
+      </c>
+      <c r="I116" s="9">
+        <v>14793904</v>
+      </c>
+      <c r="J116" s="9">
+        <v>4753</v>
+      </c>
+      <c r="K116" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="9">
+        <v>49519</v>
+      </c>
+      <c r="B117" s="9">
+        <v>73032</v>
+      </c>
+      <c r="C117" s="9">
+        <v>307971</v>
+      </c>
+      <c r="D117" s="9">
+        <v>49519</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117" t="s">
+        <v>121</v>
+      </c>
+      <c r="G117" s="9">
+        <v>20951262</v>
+      </c>
+      <c r="H117" s="9">
+        <v>3479334</v>
+      </c>
+      <c r="I117" s="9">
+        <v>17471929</v>
+      </c>
+      <c r="J117" s="9">
+        <v>3801</v>
+      </c>
+      <c r="K117" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="9">
+        <v>49519</v>
+      </c>
+      <c r="B118" s="9">
+        <v>73032</v>
+      </c>
+      <c r="C118" s="9">
+        <v>307971</v>
+      </c>
+      <c r="D118" s="9">
+        <v>49519</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118" t="s">
+        <v>121</v>
+      </c>
+      <c r="G118" s="9">
+        <v>20951262</v>
+      </c>
+      <c r="H118" s="9">
+        <v>3479334</v>
+      </c>
+      <c r="I118" s="9">
+        <v>17471929</v>
+      </c>
+      <c r="J118" s="9">
+        <v>3801</v>
+      </c>
+      <c r="K118" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="9">
+        <v>57043</v>
+      </c>
+      <c r="B119" s="9">
+        <v>75963</v>
+      </c>
+      <c r="C119" s="9">
+        <v>340284</v>
+      </c>
+      <c r="D119" s="9">
+        <v>57043</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119" s="9">
+        <v>9643</v>
+      </c>
+      <c r="G119" s="9">
+        <v>24751455</v>
+      </c>
+      <c r="H119" s="9">
+        <v>4461851</v>
+      </c>
+      <c r="I119" s="9">
+        <v>20289604</v>
+      </c>
+      <c r="J119" s="9">
+        <v>2889</v>
+      </c>
+      <c r="K119" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="9">
+        <v>57043</v>
+      </c>
+      <c r="B120" s="9">
+        <v>75963</v>
+      </c>
+      <c r="C120" s="9">
+        <v>340284</v>
+      </c>
+      <c r="D120" s="9">
+        <v>57043</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120" s="9">
+        <v>9643</v>
+      </c>
+      <c r="G120" s="9">
+        <v>24751455</v>
+      </c>
+      <c r="H120" s="9">
+        <v>4461851</v>
+      </c>
+      <c r="I120" s="9">
+        <v>20289604</v>
+      </c>
+      <c r="J120" s="9">
+        <v>2889</v>
+      </c>
+      <c r="K120" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="9">
+        <v>64567</v>
+      </c>
+      <c r="B121" s="9">
+        <v>78693</v>
+      </c>
+      <c r="C121" s="9">
+        <v>371452</v>
+      </c>
+      <c r="D121" s="9">
+        <v>64567</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121" s="9">
+        <v>9214</v>
+      </c>
+      <c r="G121" s="9">
+        <v>28699028</v>
+      </c>
+      <c r="H121" s="9">
+        <v>5548816</v>
+      </c>
+      <c r="I121" s="9">
+        <v>23150212</v>
+      </c>
+      <c r="J121" s="9">
+        <v>2033</v>
+      </c>
+      <c r="K121" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="9">
+        <v>64567</v>
+      </c>
+      <c r="B122" s="9">
+        <v>78693</v>
+      </c>
+      <c r="C122" s="9">
+        <v>371452</v>
+      </c>
+      <c r="D122" s="9">
+        <v>64567</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122" s="9">
+        <v>9214</v>
+      </c>
+      <c r="G122" s="9">
+        <v>28699028</v>
+      </c>
+      <c r="H122" s="9">
+        <v>5548816</v>
+      </c>
+      <c r="I122" s="9">
+        <v>23150212</v>
+      </c>
+      <c r="J122" s="9">
+        <v>2033</v>
+      </c>
+      <c r="K122" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="9">
+        <v>72091</v>
+      </c>
+      <c r="B123" s="9">
+        <v>81119</v>
+      </c>
+      <c r="C123" s="9">
+        <v>400111</v>
+      </c>
+      <c r="D123" s="9">
+        <v>72091</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123" s="9">
+        <v>8826</v>
+      </c>
+      <c r="G123" s="9">
+        <v>32557645</v>
+      </c>
+      <c r="H123" s="9">
+        <v>6679529</v>
+      </c>
+      <c r="I123" s="9">
+        <v>25878116</v>
+      </c>
+      <c r="J123" s="9">
+        <v>1257</v>
+      </c>
+      <c r="K123" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="9">
+        <v>72091</v>
+      </c>
+      <c r="B124" s="9">
+        <v>81119</v>
+      </c>
+      <c r="C124" s="9">
+        <v>400111</v>
+      </c>
+      <c r="D124" s="9">
+        <v>72091</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124" s="9">
+        <v>8826</v>
+      </c>
+      <c r="G124" s="9">
+        <v>32557645</v>
+      </c>
+      <c r="H124" s="9">
+        <v>6679529</v>
+      </c>
+      <c r="I124" s="9">
+        <v>25878116</v>
+      </c>
+      <c r="J124" s="9">
+        <v>1257</v>
+      </c>
+      <c r="K124" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="9">
+        <v>79614</v>
+      </c>
+      <c r="B125" s="9">
+        <v>83045</v>
+      </c>
+      <c r="C125" s="9">
+        <v>423822</v>
+      </c>
+      <c r="D125" s="9">
+        <v>79614</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125" s="9">
+        <v>8502</v>
+      </c>
+      <c r="G125" s="9">
+        <v>35873689</v>
+      </c>
+      <c r="H125" s="9">
+        <v>7730653</v>
+      </c>
+      <c r="I125" s="9">
+        <v>28143036</v>
+      </c>
+      <c r="J125" t="s">
+        <v>122</v>
+      </c>
+      <c r="K125" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="9">
+        <v>79614</v>
+      </c>
+      <c r="B126" s="9">
+        <v>83045</v>
+      </c>
+      <c r="C126" s="9">
+        <v>423822</v>
+      </c>
+      <c r="D126" s="9">
+        <v>79614</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126" s="9">
+        <v>8502</v>
+      </c>
+      <c r="G126" s="9">
+        <v>35873689</v>
+      </c>
+      <c r="H126" s="9">
+        <v>7730653</v>
+      </c>
+      <c r="I126" s="9">
+        <v>28143036</v>
+      </c>
+      <c r="J126" t="s">
+        <v>122</v>
+      </c>
+      <c r="K126" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="9">
+        <v>87138</v>
+      </c>
+      <c r="B127" s="9">
+        <v>84088</v>
+      </c>
+      <c r="C127" s="9">
+        <v>437927</v>
+      </c>
+      <c r="D127" s="9">
+        <v>87138</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127" s="9">
+        <v>8289</v>
+      </c>
+      <c r="G127" s="9">
+        <v>37769044</v>
+      </c>
+      <c r="H127" s="9">
+        <v>8462754</v>
+      </c>
+      <c r="I127" t="s">
+        <v>123</v>
+      </c>
+      <c r="J127" t="s">
+        <v>124</v>
+      </c>
+      <c r="K127" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="9">
+        <v>87138</v>
+      </c>
+      <c r="B128" s="9">
+        <v>84088</v>
+      </c>
+      <c r="C128" s="9">
+        <v>437927</v>
+      </c>
+      <c r="D128" s="9">
+        <v>87138</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128" s="9">
+        <v>8289</v>
+      </c>
+      <c r="G128" s="9">
+        <v>37769044</v>
+      </c>
+      <c r="H128" s="9">
+        <v>8462754</v>
+      </c>
+      <c r="I128" t="s">
+        <v>123</v>
+      </c>
+      <c r="J128" t="s">
+        <v>124</v>
+      </c>
+      <c r="K128" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="9">
+        <v>94662</v>
+      </c>
+      <c r="B129" s="9">
+        <v>83666</v>
+      </c>
+      <c r="C129" s="9">
+        <v>435753</v>
+      </c>
+      <c r="D129" s="9">
+        <v>94662</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129" s="9">
+        <v>8246</v>
+      </c>
+      <c r="G129" s="9">
+        <v>36996358</v>
+      </c>
+      <c r="H129" s="9">
+        <v>8552398</v>
+      </c>
+      <c r="I129" t="s">
+        <v>125</v>
+      </c>
+      <c r="J129" t="s">
+        <v>126</v>
+      </c>
+      <c r="K129" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="9">
+        <v>94662</v>
+      </c>
+      <c r="B130" s="9">
+        <v>83666</v>
+      </c>
+      <c r="C130" s="9">
+        <v>435753</v>
+      </c>
+      <c r="D130" s="9">
+        <v>94662</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130" s="9">
+        <v>8246</v>
+      </c>
+      <c r="G130" s="9">
+        <v>36996358</v>
+      </c>
+      <c r="H130" s="9">
+        <v>8552398</v>
+      </c>
+      <c r="I130" t="s">
+        <v>125</v>
+      </c>
+      <c r="J130" t="s">
+        <v>126</v>
+      </c>
+      <c r="K130" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="9">
+        <v>102186</v>
+      </c>
+      <c r="B131" s="9">
+        <v>82151</v>
+      </c>
+      <c r="C131" s="9">
+        <v>422013</v>
+      </c>
+      <c r="D131" s="9">
+        <v>102186</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131" s="9">
+        <v>8306</v>
+      </c>
+      <c r="G131" t="s">
+        <v>127</v>
+      </c>
+      <c r="H131" s="9">
+        <v>8228615</v>
+      </c>
+      <c r="I131" s="9">
+        <v>26049205</v>
+      </c>
+      <c r="J131" t="s">
+        <v>128</v>
+      </c>
+      <c r="K131" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="9">
+        <v>102186</v>
+      </c>
+      <c r="B132" s="9">
+        <v>82151</v>
+      </c>
+      <c r="C132" s="9">
+        <v>422013</v>
+      </c>
+      <c r="D132" s="9">
+        <v>102186</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132" s="9">
+        <v>8306</v>
+      </c>
+      <c r="G132" t="s">
+        <v>127</v>
+      </c>
+      <c r="H132" s="9">
+        <v>8228615</v>
+      </c>
+      <c r="I132" s="9">
+        <v>26049205</v>
+      </c>
+      <c r="J132" t="s">
+        <v>128</v>
+      </c>
+      <c r="K132" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>114</v>
+      </c>
+      <c r="B133" s="9">
+        <v>79947</v>
+      </c>
+      <c r="C133" s="9">
+        <v>401969</v>
+      </c>
+      <c r="D133" t="s">
+        <v>114</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133" t="s">
+        <v>129</v>
+      </c>
+      <c r="G133" s="9">
+        <v>30551494</v>
+      </c>
+      <c r="H133" s="9">
+        <v>7768685</v>
+      </c>
+      <c r="I133" s="9">
+        <v>22782809</v>
+      </c>
+      <c r="J133" t="s">
+        <v>130</v>
+      </c>
+      <c r="K133" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>114</v>
+      </c>
+      <c r="B134" s="9">
+        <v>79947</v>
+      </c>
+      <c r="C134" s="9">
+        <v>401969</v>
+      </c>
+      <c r="D134" t="s">
+        <v>114</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134" t="s">
+        <v>129</v>
+      </c>
+      <c r="G134" s="9">
+        <v>30551494</v>
+      </c>
+      <c r="H134" s="9">
+        <v>7768685</v>
+      </c>
+      <c r="I134" s="9">
+        <v>22782809</v>
+      </c>
+      <c r="J134" t="s">
+        <v>130</v>
+      </c>
+      <c r="K134" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="9">
+        <v>117233</v>
+      </c>
+      <c r="B135" s="9">
+        <v>76726</v>
+      </c>
+      <c r="C135" s="9">
+        <v>373481</v>
+      </c>
+      <c r="D135" s="9">
+        <v>117233</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135" t="s">
+        <v>131</v>
+      </c>
+      <c r="G135" s="9">
+        <v>25703527</v>
+      </c>
+      <c r="H135" s="9">
+        <v>7144454</v>
+      </c>
+      <c r="I135" s="9">
+        <v>18559072</v>
+      </c>
+      <c r="J135" t="s">
+        <v>132</v>
+      </c>
+      <c r="K135" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="9">
+        <v>117233</v>
+      </c>
+      <c r="B136" s="9">
+        <v>76726</v>
+      </c>
+      <c r="C136" s="9">
+        <v>373481</v>
+      </c>
+      <c r="D136" s="9">
+        <v>117233</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136" t="s">
+        <v>131</v>
+      </c>
+      <c r="G136" s="9">
+        <v>25703527</v>
+      </c>
+      <c r="H136" s="9">
+        <v>7144454</v>
+      </c>
+      <c r="I136" s="9">
+        <v>18559072</v>
+      </c>
+      <c r="J136" t="s">
+        <v>132</v>
+      </c>
+      <c r="K136" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="9">
+        <v>124757</v>
+      </c>
+      <c r="B137" s="9">
+        <v>71941</v>
+      </c>
+      <c r="C137" s="9">
+        <v>333336</v>
+      </c>
+      <c r="D137" s="9">
+        <v>124757</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137" s="9">
+        <v>8602</v>
+      </c>
+      <c r="G137" s="9">
+        <v>19749126</v>
+      </c>
+      <c r="H137" s="9">
+        <v>6304695</v>
+      </c>
+      <c r="I137" t="s">
+        <v>133</v>
+      </c>
+      <c r="J137" t="s">
+        <v>134</v>
+      </c>
+      <c r="K137" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="9">
+        <v>124757</v>
+      </c>
+      <c r="B138" s="9">
+        <v>71941</v>
+      </c>
+      <c r="C138" s="9">
+        <v>333336</v>
+      </c>
+      <c r="D138" s="9">
+        <v>124757</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138" s="9">
+        <v>8602</v>
+      </c>
+      <c r="G138" s="9">
+        <v>19749126</v>
+      </c>
+      <c r="H138" s="9">
+        <v>6304695</v>
+      </c>
+      <c r="I138" t="s">
+        <v>133</v>
+      </c>
+      <c r="J138" t="s">
+        <v>134</v>
+      </c>
+      <c r="K138" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="9">
+        <v>132281</v>
+      </c>
+      <c r="B139" s="9">
+        <v>64961</v>
+      </c>
+      <c r="C139" s="9">
+        <v>277208</v>
+      </c>
+      <c r="D139" s="9">
+        <v>132281</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139" s="9">
+        <v>8729</v>
+      </c>
+      <c r="G139" t="s">
+        <v>135</v>
+      </c>
+      <c r="H139" s="9">
+        <v>5175448</v>
+      </c>
+      <c r="I139" s="9">
+        <v>7915602</v>
+      </c>
+      <c r="J139" t="s">
+        <v>130</v>
+      </c>
+      <c r="K139" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="9">
+        <v>132281</v>
+      </c>
+      <c r="B140" s="9">
+        <v>64961</v>
+      </c>
+      <c r="C140" s="9">
+        <v>277208</v>
+      </c>
+      <c r="D140" s="9">
+        <v>132281</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140" s="9">
+        <v>8729</v>
+      </c>
+      <c r="G140" t="s">
+        <v>135</v>
+      </c>
+      <c r="H140" s="9">
+        <v>5175448</v>
+      </c>
+      <c r="I140" s="9">
+        <v>7915602</v>
+      </c>
+      <c r="J140" t="s">
+        <v>130</v>
+      </c>
+      <c r="K140" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="9">
+        <v>139805</v>
+      </c>
+      <c r="B141" s="9">
+        <v>55559</v>
+      </c>
+      <c r="C141" s="9">
+        <v>202427</v>
+      </c>
+      <c r="D141" s="9">
+        <v>139805</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141" s="9">
+        <v>8926</v>
+      </c>
+      <c r="G141" t="s">
+        <v>136</v>
+      </c>
+      <c r="H141" s="9">
+        <v>3691223</v>
+      </c>
+      <c r="I141" s="9">
+        <v>3216587</v>
+      </c>
+      <c r="J141" t="s">
+        <v>126</v>
+      </c>
+      <c r="K141" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="9">
+        <v>139805</v>
+      </c>
+      <c r="B142" s="9">
+        <v>55559</v>
+      </c>
+      <c r="C142" s="9">
+        <v>202427</v>
+      </c>
+      <c r="D142" s="9">
+        <v>139805</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142" s="9">
+        <v>8926</v>
+      </c>
+      <c r="G142" t="s">
+        <v>136</v>
+      </c>
+      <c r="H142" s="9">
+        <v>3691223</v>
+      </c>
+      <c r="I142" s="9">
+        <v>3216587</v>
+      </c>
+      <c r="J142" t="s">
+        <v>126</v>
+      </c>
+      <c r="K142" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="9">
+        <v>147329</v>
+      </c>
+      <c r="B143" s="9">
+        <v>43042</v>
+      </c>
+      <c r="C143" s="9">
+        <v>105786</v>
+      </c>
+      <c r="D143" s="9">
+        <v>147329</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143" s="9">
+        <v>9648</v>
+      </c>
+      <c r="G143" s="9">
+        <v>2223175</v>
+      </c>
+      <c r="H143" t="s">
+        <v>137</v>
+      </c>
+      <c r="I143" s="9">
+        <v>564165</v>
+      </c>
+      <c r="J143" t="s">
+        <v>138</v>
+      </c>
+      <c r="K143" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="9">
+        <v>147329</v>
+      </c>
+      <c r="B144" s="9">
+        <v>43042</v>
+      </c>
+      <c r="C144" s="9">
+        <v>105786</v>
+      </c>
+      <c r="D144" s="9">
+        <v>147329</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144" s="9">
+        <v>9648</v>
+      </c>
+      <c r="G144" s="9">
+        <v>2223175</v>
+      </c>
+      <c r="H144" t="s">
+        <v>137</v>
+      </c>
+      <c r="I144" s="9">
+        <v>564165</v>
+      </c>
+      <c r="J144" t="s">
+        <v>138</v>
+      </c>
+      <c r="K144" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="9">
+        <v>154852</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145" s="9">
+        <v>154852</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145" s="9">
+        <v>15798</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>59</v>
+      </c>
+      <c r="B147" s="9">
+        <v>154228</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>60</v>
+      </c>
+      <c r="B148" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>61</v>
+      </c>
+      <c r="B149" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>62</v>
+      </c>
+      <c r="B150">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>63</v>
+      </c>
+      <c r="B151" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>64</v>
+      </c>
+      <c r="B152">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>65</v>
+      </c>
+      <c r="B153" s="9">
+        <v>23134244</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>66</v>
+      </c>
+      <c r="B154">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>67</v>
+      </c>
+      <c r="B156">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>68</v>
+      </c>
+      <c r="B157">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>69</v>
+      </c>
+      <c r="B158">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>70</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>71</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>72</v>
+      </c>
+      <c r="B162">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>73</v>
+      </c>
+      <c r="B163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>74</v>
+      </c>
+      <c r="B164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>75</v>
+      </c>
+      <c r="B165">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>76</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>77</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>81</v>
+      </c>
+      <c r="B172" t="s">
+        <v>82</v>
+      </c>
+      <c r="C172" t="s">
+        <v>83</v>
+      </c>
+      <c r="D172" t="s">
+        <v>84</v>
+      </c>
+      <c r="E172" t="s">
+        <v>85</v>
+      </c>
+      <c r="F172" t="s">
+        <v>86</v>
+      </c>
+      <c r="G172" t="s">
+        <v>87</v>
+      </c>
+      <c r="H172" t="s">
+        <v>88</v>
+      </c>
+      <c r="I172" t="s">
+        <v>89</v>
+      </c>
+      <c r="J172" t="s">
+        <v>90</v>
+      </c>
+      <c r="K172" t="s">
+        <v>91</v>
+      </c>
+      <c r="L172" t="s">
+        <v>92</v>
+      </c>
+      <c r="M172" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>40</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>81</v>
+      </c>
+      <c r="B176" t="s">
+        <v>82</v>
+      </c>
+      <c r="C176" t="s">
+        <v>83</v>
+      </c>
+      <c r="D176" t="s">
+        <v>84</v>
+      </c>
+      <c r="E176" t="s">
+        <v>85</v>
+      </c>
+      <c r="F176" t="s">
+        <v>86</v>
+      </c>
+      <c r="G176" t="s">
+        <v>87</v>
+      </c>
+      <c r="H176" t="s">
+        <v>88</v>
+      </c>
+      <c r="I176" t="s">
+        <v>89</v>
+      </c>
+      <c r="J176" t="s">
+        <v>90</v>
+      </c>
+      <c r="K176" t="s">
+        <v>91</v>
+      </c>
+      <c r="L176" t="s">
+        <v>92</v>
+      </c>
+      <c r="M176" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>98</v>
+      </c>
+      <c r="B180" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>